--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>case_id</t>
   </si>
@@ -140,178 +140,145 @@
     <t>{"mobilephone":"15810447656","amount":"100"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112171,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15810447656","leaveamount":"39569157.76","type":"1","regtime":"2018-12-28 21:26:28.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>充值手机号码不存在</t>
   </si>
   <si>
     <t>{"mobilephone":"12345678985","amount":""}</t>
   </si>
   <si>
+    <t>充值金额小数点大于两位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15810447656","amount":"33.2222"}</t>
+  </si>
+  <si>
+    <t>输入负数</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15810447656","amount":"-200"}</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"1000"}</t>
+  </si>
+  <si>
+    <t>不输入金额</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":""}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"-1000"}</t>
+  </si>
+  <si>
+    <t>小数点超过3位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"1000.987"}</t>
+  </si>
+  <si>
+    <t>管理员正常登录</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${admin_user}","pwd":"${admin_pwd}"}</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId":"${loan_member_id}","title":"试试人品行不行，借个2W玩玩","amount":20000,"loanRate":"12.0","loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
+  </si>
+  <si>
+    <t>管理员审核</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":4}</t>
+  </si>
+  <si>
+    <t>投资人正常登录</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"100"}</t>
+  </si>
+  <si>
+    <t>投资人投资不输入金额</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":""}</t>
+  </si>
+  <si>
+    <t>投资人投资输入负数</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"-100"}</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>admin_user</t>
+  </si>
+  <si>
+    <t>系统管理员，可以登录后台系统，进行创建标的，审核标的，查看标的列表等操作</t>
+  </si>
+  <si>
+    <t>投资人</t>
+  </si>
+  <si>
+    <t>normal_user</t>
+  </si>
+  <si>
+    <t>投资者，可以登录前台系统，进行充值，提现，投资，查看投资记录，流水记录等</t>
+  </si>
+  <si>
+    <t>借款人</t>
+  </si>
+  <si>
+    <t>borrow_user</t>
+  </si>
+  <si>
+    <t>借款人，通常借款人信息由管理员录入到后台管理系统，根据借款人借款需求来创建标的</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112171,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15810447656","leaveamount":"7875515.76","type":"1","regtime":"2018-12-28 21:26:28.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
   </si>
   <si>
-    <t>充值金额小数点大于两位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"15810447656","amount":"33.2222"}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
   </si>
   <si>
-    <t>输入负数</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"15810447656","amount":"-200"}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>TestResult</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"1000"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'id': 27432, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090552', 'leaveamount': '122356.00', 'type': '1', 'regtime': '2018-09-01 15:20:49.0'}, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>不输入金额</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":""}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"-1000"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
-  </si>
-  <si>
-    <t>小数点超过3位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"1000.987"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
-  </si>
-  <si>
-    <t>管理员正常登录</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${admin_user}","pwd":"${admin_pwd}"}</t>
-  </si>
-  <si>
-    <t>管理员加标</t>
-  </si>
-  <si>
-    <t>/loan/add</t>
-  </si>
-  <si>
-    <t>{"memberId":"${loan_member_id}","title":"试试人品行不行，借个2W玩玩","amount":20000,"loanRate":"12.0","loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
-  </si>
-  <si>
-    <t>管理员审核</t>
-  </si>
-  <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
-    <t>{"id":"${loan_id}","status":4}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
-    <t>投资人正常登录</t>
-  </si>
-  <si>
-    <t>投资人正常投资</t>
-  </si>
-  <si>
-    <t>/member/bidLoan</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
-  </si>
-  <si>
-    <t>投资人投资不输入金额</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
-  </si>
-  <si>
-    <t>投资人投资输入负数</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"-100"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
-  </si>
-  <si>
-    <t>用户类型</t>
-  </si>
-  <si>
-    <t>管理员</t>
-  </si>
-  <si>
-    <t>admin_user</t>
-  </si>
-  <si>
-    <t>系统管理员，可以登录后台系统，进行创建标的，审核标的，查看标的列表等操作</t>
-  </si>
-  <si>
-    <t>投资人</t>
-  </si>
-  <si>
-    <t>normal_user</t>
-  </si>
-  <si>
-    <t>投资者，可以登录前台系统，进行充值，提现，投资，查看投资记录，流水记录等</t>
-  </si>
-  <si>
-    <t>借款人</t>
-  </si>
-  <si>
-    <t>borrow_user</t>
-  </si>
-  <si>
-    <t>借款人，通常借款人信息由管理员录入到后台管理系统，根据借款人借款需求来创建标的</t>
-  </si>
-  <si>
-    <t>测试数据</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112171,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15810447656","leaveamount":"7875515.76","type":"1","regtime":"2018-12-28 21:26:28.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
@@ -767,8 +734,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -928,7 +895,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G2" sqref="G2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -988,12 +955,8 @@
       <c r="F2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="18" t="n"/>
+      <c r="H2" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="25.95" r="3" spans="1:8">
       <c r="A3" s="18" t="n">
@@ -1014,12 +977,8 @@
       <c r="F3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="18" t="n"/>
+      <c r="H3" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="25.95" r="4" spans="1:8">
       <c r="A4" s="18" t="n">
@@ -1040,12 +999,8 @@
       <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="18" t="n"/>
+      <c r="H4" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="25.95" r="5" spans="1:8">
       <c r="A5" s="18" t="n">
@@ -1066,12 +1021,8 @@
       <c r="F5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="18" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1092,7 +1043,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1156,12 +1107,8 @@
       <c r="F2" s="11" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="8" t="n"/>
       <c r="I2" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="19.8" r="3" spans="1:9">
@@ -1183,12 +1130,8 @@
       <c r="F3" s="11" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="n"/>
       <c r="I3" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="4" spans="1:9">
@@ -1196,13 +1139,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>11</v>
@@ -1210,12 +1153,8 @@
       <c r="F4" s="11" t="n">
         <v>20109</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="12" t="n"/>
+      <c r="H4" s="12" t="n"/>
       <c r="I4" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="16.2" r="5" spans="1:9">
@@ -1223,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>16</v>
@@ -1237,12 +1176,8 @@
       <c r="F5" s="11" t="n">
         <v>20116</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
       <c r="I5" s="12" t="n"/>
     </row>
     <row r="6" spans="1:9">
@@ -1250,13 +1185,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>16</v>
@@ -1264,12 +1199,8 @@
       <c r="F6" s="10" t="n">
         <v>20117</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="13" t="n"/>
       <c r="I6" s="12" t="n"/>
     </row>
   </sheetData>
@@ -1287,7 +1218,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1318,13 +1249,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1338,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -1346,12 +1277,8 @@
       <c r="F2" s="3" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:8">
       <c r="A3" s="3" t="n">
@@ -1364,7 +1291,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -1372,25 +1299,21 @@
       <c r="F3" s="3" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1398,25 +1321,21 @@
       <c r="F4" s="3" t="n">
         <v>20115</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -1424,25 +1343,21 @@
       <c r="F5" s="3" t="n">
         <v>20117</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -1450,12 +1365,8 @@
       <c r="F6" s="3" t="n">
         <v>10001</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1490,8 +1401,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1518,13 +1429,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1532,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>11</v>
@@ -1546,25 +1457,21 @@
       <c r="F2" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="43.2" r="3" spans="1:8">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>11</v>
@@ -1572,25 +1479,21 @@
       <c r="F3" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>16</v>
@@ -1598,25 +1501,21 @@
       <c r="F4" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>11</v>
@@ -1624,25 +1523,21 @@
       <c r="F5" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
@@ -1650,25 +1545,21 @@
       <c r="F6" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -1676,25 +1567,21 @@
       <c r="F7" s="4" t="n">
         <v>11003</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="4" t="n"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -1702,12 +1589,8 @@
       <c r="F8" s="4" t="n">
         <v>11007</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1736,60 +1619,60 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>38</v>
@@ -1865,7 +1748,7 @@
         <v>10001</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>13</v>
@@ -1876,13 +1759,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>11</v>
@@ -1891,7 +1774,7 @@
         <v>20109</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>13</v>
@@ -1902,13 +1785,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>16</v>
@@ -1917,7 +1800,7 @@
         <v>20116</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>13</v>
@@ -1928,13 +1811,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>16</v>
@@ -1943,7 +1826,7 @@
         <v>20117</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>13</v>
